--- a/BOM/PAROL BOM.xlsx
+++ b/BOM/PAROL BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="List 1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="126">
   <si>
     <t>This file contains all the parts you need to build PAROL6 robot!</t>
   </si>
@@ -377,6 +377,18 @@
   </si>
   <si>
     <t>4mm tube connectors, 5/2, 24V</t>
+  </si>
+  <si>
+    <t>Vacuum gripper</t>
+  </si>
+  <si>
+    <t>Suction cup gripper</t>
+  </si>
+  <si>
+    <t>Vacuum generator</t>
+  </si>
+  <si>
+    <t>4mm to 6mm coupler</t>
   </si>
 </sst>
 </file>
@@ -490,9 +502,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border/>
     <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -501,8 +531,14 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -514,95 +550,128 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -815,1232 +884,1225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="7" max="7" width="25.5"/>
+    <col customWidth="1" min="8" max="8" width="38.5"/>
+    <col customWidth="1" min="9" max="9" width="36.13"/>
+    <col customWidth="1" min="10" max="10" width="41.75"/>
+    <col customWidth="1" min="11" max="11" width="44.75"/>
+  </cols>
   <sheetData>
-    <row r="5">
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6">
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7">
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
     <row r="8">
-      <c r="C8" s="3"/>
-      <c r="D8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="6"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10">
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="H10" s="2"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11">
-      <c r="C11" s="3"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8" t="s">
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="G14" s="7"/>
+      <c r="H14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12">
-      <c r="C12" s="3"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="9" t="s">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15">
+      <c r="G15" s="10"/>
+      <c r="H15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="I15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="J15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="3"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
+      <c r="K15" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="G16" s="10"/>
+      <c r="H16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="6">
+      <c r="I16" s="6">
         <v>20.0</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14">
-      <c r="C14" s="3"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17">
+      <c r="G17" s="10"/>
+      <c r="H17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="6">
+      <c r="I17" s="6">
         <v>10.0</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="J17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15">
-      <c r="C15" s="3"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="G18" s="10"/>
+      <c r="H18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="6">
+      <c r="I18" s="6">
         <v>50.0</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16">
-      <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19">
+      <c r="G19" s="10"/>
+      <c r="H19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="6">
+      <c r="I19" s="6">
         <v>30.0</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17">
-      <c r="C17" s="3"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20">
+      <c r="G20" s="10"/>
+      <c r="H20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="6">
+      <c r="I20" s="6">
         <v>10.0</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="J20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18">
-      <c r="C18" s="3"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21">
+      <c r="G21" s="10"/>
+      <c r="H21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="6">
+      <c r="I21" s="6">
         <v>10.0</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="J21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19">
-      <c r="C19" s="3"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22">
+      <c r="G22" s="10"/>
+      <c r="H22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="6">
+      <c r="I22" s="6">
         <v>10.0</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="J22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20">
-      <c r="C20" s="3"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23">
+      <c r="G23" s="10"/>
+      <c r="H23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="6">
+      <c r="I23" s="6">
         <v>10.0</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="J23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21">
-      <c r="C21" s="3"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24">
+      <c r="G24" s="10"/>
+      <c r="H24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="6">
+      <c r="I24" s="6">
         <v>10.0</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="J24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22">
-      <c r="C22" s="3"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25">
+      <c r="G25" s="10"/>
+      <c r="H25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="6">
+      <c r="I25" s="6">
         <v>30.0</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="J25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23">
-      <c r="C23" s="3"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26">
+      <c r="G26" s="10"/>
+      <c r="H26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="6">
+      <c r="I26" s="6">
         <v>10.0</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="J26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24">
-      <c r="C24" s="3"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27">
+      <c r="G27" s="10"/>
+      <c r="H27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="6">
+      <c r="I27" s="6">
         <v>30.0</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="J27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25">
-      <c r="C25" s="3"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28">
+      <c r="G28" s="10"/>
+      <c r="H28" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="6">
+      <c r="I28" s="6">
         <v>10.0</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="J28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26">
-      <c r="C26" s="3"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29">
+      <c r="G29" s="10"/>
+      <c r="H29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="6">
+      <c r="I29" s="6">
         <v>10.0</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="J29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27">
-      <c r="C27" s="3"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30">
+      <c r="G30" s="10"/>
+      <c r="H30" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="6">
+      <c r="I30" s="6">
         <v>2.0</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="J30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28">
-      <c r="C28" s="3"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12" t="s">
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31">
+      <c r="G31" s="13"/>
+      <c r="H31" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29">
-      <c r="C29" s="3"/>
-      <c r="D29" s="9" t="s">
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+    </row>
+    <row r="32">
+      <c r="G32" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="H32" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="I32" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="J32" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" s="3"/>
-      <c r="D30" s="6" t="s">
+      <c r="K32" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="G33" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="H33" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="6">
+      <c r="I33" s="6">
         <v>2.0</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" s="3"/>
-      <c r="D31" s="6" t="s">
+      <c r="J33" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="G34" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" s="3"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15" t="s">
+      <c r="I34" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="G35" s="18"/>
+      <c r="H35" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33">
-      <c r="C33" s="3"/>
-      <c r="D33" s="9" t="s">
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+    </row>
+    <row r="36">
+      <c r="G36" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="H36" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="I36" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="J36" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" s="3"/>
-      <c r="D34" s="6" t="s">
+      <c r="K36" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="G37" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="H37" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" s="3"/>
-      <c r="D35" s="6" t="s">
+      <c r="I37" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="G38" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="H38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="6">
+      <c r="I38" s="6">
         <v>3.0</v>
       </c>
-      <c r="G35" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" s="3"/>
-      <c r="D36" s="6" t="s">
+      <c r="J38" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="G39" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="H39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="6">
+      <c r="I39" s="6">
         <v>2.0</v>
       </c>
-      <c r="G36" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" s="3"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17" t="s">
+      <c r="J39" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="G40" s="21"/>
+      <c r="H40" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38">
-      <c r="C38" s="3"/>
-      <c r="D38" s="9" t="s">
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+    </row>
+    <row r="41">
+      <c r="G41" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="H41" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="I41" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="J41" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="C39" s="3"/>
-      <c r="D39" s="6" t="s">
+      <c r="K41" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="G42" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="H42" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G39" s="6" t="s">
+      <c r="I42" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J42" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40">
-      <c r="C40" s="3"/>
-      <c r="D40" s="6" t="s">
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43">
+      <c r="G43" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="H43" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G40" s="6" t="s">
+      <c r="I43" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J43" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" s="3"/>
-      <c r="D41" s="6" t="s">
+      <c r="K43" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="G44" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="H44" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F41" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G41" s="18" t="s">
+      <c r="I44" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J44" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="C42" s="3"/>
-      <c r="D42" s="6" t="s">
+      <c r="K44" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="G45" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="H45" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G42" s="6" t="s">
+      <c r="I45" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J45" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H42" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="C43" s="3"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20" t="s">
+      <c r="K45" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="G46" s="25"/>
+      <c r="H46" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-    </row>
-    <row r="44">
-      <c r="C44" s="3"/>
-      <c r="D44" s="9" t="s">
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+    </row>
+    <row r="47">
+      <c r="G47" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="H47" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="I47" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="J47" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="C45" s="3"/>
-      <c r="D45" s="6" t="s">
+      <c r="K47" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="G48" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="H48" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F45" s="6">
+      <c r="I48" s="6">
         <v>2.0</v>
       </c>
-      <c r="G45" s="6"/>
-      <c r="H45" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="C46" s="3"/>
-      <c r="D46" s="6" t="s">
+      <c r="J48" s="6"/>
+      <c r="K48" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="G49" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="H49" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="C47" s="3"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="22" t="s">
+      <c r="I49" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J49" s="6"/>
+      <c r="K49" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="G50" s="28"/>
+      <c r="H50" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-    </row>
-    <row r="48">
-      <c r="C48" s="3"/>
-      <c r="D48" s="9" t="s">
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+    </row>
+    <row r="51">
+      <c r="G51" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="H51" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="I51" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="J51" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H48" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="C49" s="1"/>
-      <c r="D49" s="18" t="s">
+      <c r="K51" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="G52" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="H52" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="6">
+      <c r="I52" s="6">
         <v>3.0</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="J52" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H49" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="C50" s="3"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="24" t="s">
+      <c r="K52" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="G53" s="31"/>
+      <c r="H53" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-    </row>
-    <row r="51">
-      <c r="C51" s="3"/>
-      <c r="D51" s="9" t="s">
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+    </row>
+    <row r="54">
+      <c r="G54" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="H54" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="I54" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="J54" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H51" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="C52" s="3"/>
-      <c r="D52" s="6" t="s">
+      <c r="K54" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="G55" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="H55" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F52" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G52" s="6" t="s">
+      <c r="I55" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J55" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="C53" s="3"/>
-      <c r="D53" s="6" t="s">
+      <c r="K55" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="G56" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="H56" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F53" s="6">
+      <c r="I56" s="6">
         <v>5.0</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="J56" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H53" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="C54" s="3"/>
-      <c r="D54" s="6" t="s">
+      <c r="K56" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="G57" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="H57" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F54" s="6">
+      <c r="I57" s="6">
         <v>4.0</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="J57" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H54" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="C55" s="3"/>
-      <c r="D55" s="6" t="s">
+      <c r="K57" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="G58" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="H58" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F55" s="6">
+      <c r="I58" s="6">
         <v>20.0</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="J58" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H55" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="C56" s="3"/>
-      <c r="D56" s="6" t="s">
+      <c r="K58" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="G59" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="H59" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F56" s="6">
+      <c r="I59" s="6">
         <v>20.0</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="J59" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H56" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="C57" s="3"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="26" t="s">
+      <c r="K59" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="G60" s="34"/>
+      <c r="H60" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-    </row>
-    <row r="58">
-      <c r="C58" s="3"/>
-      <c r="D58" s="10" t="s">
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+    </row>
+    <row r="61">
+      <c r="G61" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="H61" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="I61" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="J61" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H58" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="C59" s="3"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6" t="s">
+      <c r="K61" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="G62" s="10"/>
+      <c r="H62" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F59" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G59" s="13" t="s">
+      <c r="I62" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J62" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="H59" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="C60" s="3"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6" t="s">
+      <c r="K62" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="G63" s="10"/>
+      <c r="H63" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F60" s="6">
+      <c r="I63" s="6">
         <v>6.0</v>
       </c>
-      <c r="G60" s="27" t="s">
+      <c r="J63" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="H60" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="C61" s="3"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6" t="s">
+      <c r="K63" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="G64" s="10"/>
+      <c r="H64" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F61" s="6">
+      <c r="I64" s="6">
         <v>2.0</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="J64" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H61" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="C62" s="3"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6" t="s">
+      <c r="K64" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="G65" s="10"/>
+      <c r="H65" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F62" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G62" s="6" t="s">
+      <c r="I65" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J65" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H62" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="C63" s="3"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6" t="s">
+      <c r="K65" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="G66" s="10"/>
+      <c r="H66" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F63" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G63" s="6" t="s">
+      <c r="I66" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J66" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H63" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="C64" s="3"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6" t="s">
+      <c r="K66" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="G67" s="10"/>
+      <c r="H67" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F64" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65">
-      <c r="C65" s="3"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6" t="s">
+      <c r="I67" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+    </row>
+    <row r="68">
+      <c r="G68" s="10"/>
+      <c r="H68" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F65" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G65" s="6" t="s">
+      <c r="I68" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J68" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H65" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="C66" s="3"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6" t="s">
+      <c r="K68" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="G69" s="10"/>
+      <c r="H69" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F66" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G66" s="6" t="s">
+      <c r="I69" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J69" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H66" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="C67" s="3"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6" t="s">
+      <c r="K69" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="G70" s="10"/>
+      <c r="H70" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F67" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G67" s="6" t="s">
+      <c r="I70" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J70" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H67" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="C68" s="3"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6" t="s">
+      <c r="K70" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="G71" s="10"/>
+      <c r="H71" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F68" s="6">
+      <c r="I71" s="6">
         <v>3.0</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="J71" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H68" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="C69" s="3"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6" t="s">
+      <c r="K71" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="G72" s="10"/>
+      <c r="H72" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F69" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G69" s="6" t="s">
+      <c r="I72" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J72" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H69" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="C70" s="3"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="18" t="s">
+      <c r="K72" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="G73" s="10"/>
+      <c r="H73" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="F70" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G70" s="6" t="s">
+      <c r="I73" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J73" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H70" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="C71" s="3"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="18" t="s">
+      <c r="K73" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="G74" s="10"/>
+      <c r="H74" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F71" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G71" s="6" t="s">
+      <c r="I74" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J74" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H71" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="C72" s="3"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6" t="s">
+      <c r="K74" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="G75" s="10"/>
+      <c r="H75" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F72" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G72" s="6" t="s">
+      <c r="I75" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J75" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H72" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="C73" s="3"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6" t="s">
+      <c r="K75" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="G76" s="10"/>
+      <c r="H76" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="G73" s="28" t="s">
+      <c r="I76" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="J76" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="H73" s="29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="C74" s="3"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="28" t="s">
+      <c r="K76" s="40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="G77" s="10"/>
+      <c r="H77" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="F74" s="28">
+      <c r="I77" s="39">
         <v>4.0</v>
       </c>
-      <c r="G74" s="28" t="s">
+      <c r="J77" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="H74" s="29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="C75" s="3"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6" t="s">
+      <c r="K77" s="40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="G78" s="10"/>
+      <c r="H78" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F75" s="6">
+      <c r="I78" s="6">
         <v>4.0</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="J78" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H75" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="C76" s="3"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6" t="s">
+      <c r="K78" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="G79" s="10"/>
+      <c r="H79" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F76" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G76" s="6" t="s">
+      <c r="I79" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J79" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H76" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="C77" s="3"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6" t="s">
+      <c r="K79" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="G80" s="10"/>
+      <c r="H80" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F77" s="6">
+      <c r="I80" s="6">
         <v>2.0</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="J80" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H77" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="C78" s="3"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6" t="s">
+      <c r="K80" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="G81" s="10"/>
+      <c r="H81" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="I81" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="J81" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H78" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="C79" s="3"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6" t="s">
+      <c r="K81" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="G82" s="10"/>
+      <c r="H82" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F79" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G79" s="6" t="s">
+      <c r="I82" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J82" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H79" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="C80" s="3"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6" t="s">
+      <c r="K82" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="G83" s="10"/>
+      <c r="H83" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F80" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G80" s="28" t="s">
+      <c r="I83" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J83" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="H80" s="29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="C81" s="3"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6" t="s">
+      <c r="K83" s="40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="G84" s="10"/>
+      <c r="H84" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F81" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G81" s="6" t="s">
+      <c r="I84" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J84" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H81" s="6"/>
-    </row>
-    <row r="82">
-      <c r="C82" s="3"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6" t="s">
+      <c r="K84" s="6"/>
+    </row>
+    <row r="85">
+      <c r="G85" s="10"/>
+      <c r="H85" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F82" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G82" s="6" t="s">
+      <c r="I85" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J85" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H82" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
+      <c r="K85" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="G86" s="31"/>
+      <c r="H86" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="I86" s="33"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="33"/>
+    </row>
+    <row r="87">
+      <c r="G87" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K87" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="G88" s="10"/>
+      <c r="H88" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I88" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J88" s="6"/>
+      <c r="K88" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="G89" s="10"/>
+      <c r="H89" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I89" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J89" s="6"/>
+      <c r="K89" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="G90" s="10"/>
+      <c r="H90" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I90" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J90" s="6"/>
+      <c r="K90" s="17" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G30"/>
-    <hyperlink r:id="rId2" ref="H30"/>
-    <hyperlink r:id="rId3" ref="G31"/>
-    <hyperlink r:id="rId4" ref="H31"/>
-    <hyperlink r:id="rId5" ref="G34"/>
-    <hyperlink r:id="rId6" ref="H34"/>
-    <hyperlink r:id="rId7" ref="G35"/>
-    <hyperlink r:id="rId8" ref="H35"/>
-    <hyperlink r:id="rId9" ref="G36"/>
-    <hyperlink r:id="rId10" ref="H36"/>
-    <hyperlink r:id="rId11" ref="H40"/>
-    <hyperlink r:id="rId12" ref="H41"/>
-    <hyperlink r:id="rId13" ref="H42"/>
-    <hyperlink r:id="rId14" ref="H45"/>
-    <hyperlink r:id="rId15" ref="H46"/>
-    <hyperlink r:id="rId16" ref="H49"/>
-    <hyperlink r:id="rId17" ref="H52"/>
-    <hyperlink r:id="rId18" ref="H53"/>
-    <hyperlink r:id="rId19" ref="H54"/>
-    <hyperlink r:id="rId20" ref="H55"/>
-    <hyperlink r:id="rId21" ref="H56"/>
-    <hyperlink r:id="rId22" ref="G59"/>
-    <hyperlink r:id="rId23" ref="H59"/>
-    <hyperlink r:id="rId24" ref="G60"/>
-    <hyperlink r:id="rId25" ref="H60"/>
-    <hyperlink r:id="rId26" ref="H61"/>
-    <hyperlink r:id="rId27" ref="H62"/>
-    <hyperlink r:id="rId28" ref="H63"/>
-    <hyperlink r:id="rId29" ref="H65"/>
-    <hyperlink r:id="rId30" ref="H66"/>
-    <hyperlink r:id="rId31" ref="H67"/>
-    <hyperlink r:id="rId32" ref="H68"/>
-    <hyperlink r:id="rId33" ref="H69"/>
-    <hyperlink r:id="rId34" ref="H70"/>
-    <hyperlink r:id="rId35" ref="H71"/>
-    <hyperlink r:id="rId36" ref="H72"/>
-    <hyperlink r:id="rId37" ref="H73"/>
-    <hyperlink r:id="rId38" ref="H74"/>
-    <hyperlink r:id="rId39" ref="H75"/>
-    <hyperlink r:id="rId40" ref="H76"/>
-    <hyperlink r:id="rId41" ref="H77"/>
-    <hyperlink r:id="rId42" ref="H78"/>
-    <hyperlink r:id="rId43" ref="H79"/>
-    <hyperlink r:id="rId44" ref="H80"/>
-    <hyperlink r:id="rId45" ref="H82"/>
+    <hyperlink r:id="rId1" ref="J33"/>
+    <hyperlink r:id="rId2" ref="K33"/>
+    <hyperlink r:id="rId3" ref="J34"/>
+    <hyperlink r:id="rId4" ref="K34"/>
+    <hyperlink r:id="rId5" ref="J37"/>
+    <hyperlink r:id="rId6" ref="K37"/>
+    <hyperlink r:id="rId7" ref="J38"/>
+    <hyperlink r:id="rId8" ref="K38"/>
+    <hyperlink r:id="rId9" ref="J39"/>
+    <hyperlink r:id="rId10" ref="K39"/>
+    <hyperlink r:id="rId11" ref="K43"/>
+    <hyperlink r:id="rId12" ref="K44"/>
+    <hyperlink r:id="rId13" ref="K45"/>
+    <hyperlink r:id="rId14" ref="K48"/>
+    <hyperlink r:id="rId15" ref="K49"/>
+    <hyperlink r:id="rId16" ref="K52"/>
+    <hyperlink r:id="rId17" ref="K55"/>
+    <hyperlink r:id="rId18" ref="K56"/>
+    <hyperlink r:id="rId19" ref="K57"/>
+    <hyperlink r:id="rId20" ref="K58"/>
+    <hyperlink r:id="rId21" ref="K59"/>
+    <hyperlink r:id="rId22" ref="J62"/>
+    <hyperlink r:id="rId23" ref="K62"/>
+    <hyperlink r:id="rId24" ref="J63"/>
+    <hyperlink r:id="rId25" ref="K63"/>
+    <hyperlink r:id="rId26" ref="K64"/>
+    <hyperlink r:id="rId27" ref="K65"/>
+    <hyperlink r:id="rId28" ref="K66"/>
+    <hyperlink r:id="rId29" ref="K68"/>
+    <hyperlink r:id="rId30" ref="K69"/>
+    <hyperlink r:id="rId31" ref="K70"/>
+    <hyperlink r:id="rId32" ref="K71"/>
+    <hyperlink r:id="rId33" ref="K72"/>
+    <hyperlink r:id="rId34" ref="K73"/>
+    <hyperlink r:id="rId35" ref="K74"/>
+    <hyperlink r:id="rId36" ref="K75"/>
+    <hyperlink r:id="rId37" ref="K76"/>
+    <hyperlink r:id="rId38" ref="K77"/>
+    <hyperlink r:id="rId39" ref="K78"/>
+    <hyperlink r:id="rId40" ref="K79"/>
+    <hyperlink r:id="rId41" ref="K80"/>
+    <hyperlink r:id="rId42" ref="K81"/>
+    <hyperlink r:id="rId43" ref="K82"/>
+    <hyperlink r:id="rId44" ref="K83"/>
+    <hyperlink r:id="rId45" ref="K85"/>
+    <hyperlink r:id="rId46" ref="K88"/>
+    <hyperlink r:id="rId47" ref="K89"/>
+    <hyperlink r:id="rId48" ref="K90"/>
   </hyperlinks>
-  <drawing r:id="rId46"/>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
+  <drawing r:id="rId49"/>
 </worksheet>
 </file>
--- a/BOM/PAROL BOM.xlsx
+++ b/BOM/PAROL BOM.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="130" yWindow="570" windowWidth="38080" windowHeight="17490"/>
   </bookViews>
   <sheets>
-    <sheet name="PAROL6 BOM PUBLIC" sheetId="2" r:id="rId1"/>
+    <sheet name="PAROL6 BOM PUBLIC" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="127">
   <si>
     <t>Screws and nuts:</t>
   </si>
@@ -328,6 +328,21 @@
     <t>5/2 solenoid air valve</t>
   </si>
   <si>
+    <t>Link2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMC5160 </t>
+  </si>
+  <si>
+    <t>Drivers from the links are tested. Use any other at own risk: Link1</t>
+  </si>
+  <si>
+    <t>JST PH 2.0mm 200mm 4PIN</t>
+  </si>
+  <si>
+    <t>For power button</t>
+  </si>
+  <si>
     <t>This file contains all the parts you need to build PAROL6 robot!</t>
   </si>
   <si>
@@ -340,27 +355,12 @@
     <t>Pan head phillips</t>
   </si>
   <si>
-    <t xml:space="preserve">TMC5160 </t>
-  </si>
-  <si>
-    <t>Drivers from the links are tested. Use any other at own risk: Link1</t>
-  </si>
-  <si>
-    <t>Link2</t>
-  </si>
-  <si>
     <t>Thermal paste</t>
   </si>
   <si>
     <t>Needed only if your control board has no drivers!</t>
   </si>
   <si>
-    <t>JST PH 2.0mm 200mm 4PIN</t>
-  </si>
-  <si>
-    <t>For power button</t>
-  </si>
-  <si>
     <t>Any NC estop</t>
   </si>
   <si>
@@ -395,16 +395,13 @@
   </si>
   <si>
     <t>4mm to 6mm coupler</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -449,6 +446,13 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -456,8 +460,7 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="10"/>
+      <sz val="15"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
@@ -655,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -731,16 +734,19 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -748,15 +754,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1097,8 +1103,8 @@
   </sheetPr>
   <dimension ref="D30:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N76" sqref="N76"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1110,30 +1116,27 @@
     <col min="9" max="9" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="30" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
-    </row>
-    <row r="31" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" s="33"/>
-      <c r="J31" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D32" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
-    </row>
-    <row r="35" spans="4:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D30" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
+    </row>
+    <row r="31" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="34"/>
+    </row>
+    <row r="32" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D32" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="36"/>
+      <c r="F32" s="37"/>
+    </row>
+    <row r="35" spans="4:10" ht="13" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
         <v>0</v>
@@ -1142,7 +1145,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="4:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:10" ht="13" x14ac:dyDescent="0.3">
       <c r="D36" s="3"/>
       <c r="E36" s="4" t="s">
         <v>1</v>
@@ -1156,8 +1159,9 @@
       <c r="H36" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="3"/>
       <c r="E37" s="6" t="s">
         <v>5</v>
@@ -1170,7 +1174,7 @@
       </c>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="3"/>
       <c r="E38" s="6" t="s">
         <v>7</v>
@@ -1183,7 +1187,7 @@
       </c>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" s="3"/>
       <c r="E39" s="6" t="s">
         <v>7</v>
@@ -1196,7 +1200,7 @@
       </c>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" s="3"/>
       <c r="E40" s="6" t="s">
         <v>9</v>
@@ -1209,7 +1213,7 @@
       </c>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" s="3"/>
       <c r="E41" s="6" t="s">
         <v>10</v>
@@ -1222,7 +1226,7 @@
       </c>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42" s="3"/>
       <c r="E42" s="6" t="s">
         <v>11</v>
@@ -1235,7 +1239,7 @@
       </c>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="3"/>
       <c r="E43" s="6" t="s">
         <v>12</v>
@@ -1248,7 +1252,7 @@
       </c>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D44" s="3"/>
       <c r="E44" s="6" t="s">
         <v>13</v>
@@ -1261,7 +1265,7 @@
       </c>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" s="3"/>
       <c r="E45" s="6" t="s">
         <v>14</v>
@@ -1270,11 +1274,11 @@
         <v>10</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="3"/>
       <c r="E46" s="6" t="s">
         <v>15</v>
@@ -1287,7 +1291,7 @@
       </c>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="3"/>
       <c r="E47" s="6" t="s">
         <v>16</v>
@@ -1300,7 +1304,7 @@
       </c>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D48" s="3"/>
       <c r="E48" s="6" t="s">
         <v>17</v>
@@ -1378,7 +1382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="4:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D54" s="6" t="s">
         <v>25</v>
       </c>
@@ -1395,7 +1399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="4:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D55" s="6" t="s">
         <v>27</v>
       </c>
@@ -1438,7 +1442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="4:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D58" s="6" t="s">
         <v>30</v>
       </c>
@@ -1834,31 +1838,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="4:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:8" ht="27" x14ac:dyDescent="0.4">
       <c r="D84" s="3"/>
       <c r="E84" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F84" s="6">
         <v>6</v>
       </c>
-      <c r="G84" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>110</v>
+      <c r="G84" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="H84" s="38" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="4:8" ht="13" x14ac:dyDescent="0.3">
       <c r="D85" s="3"/>
       <c r="E85" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F85" s="6">
         <v>2</v>
       </c>
-      <c r="G85" s="38" t="s">
-        <v>112</v>
+      <c r="G85" s="39" t="s">
+        <v>114</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>4</v>
@@ -1882,13 +1886,13 @@
     <row r="87" spans="4:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D87" s="3"/>
       <c r="E87" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F87" s="6">
         <v>1</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H87" s="9" t="s">
         <v>4</v>
@@ -1903,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="6"/>
-      <c r="H88" s="39"/>
+      <c r="H88" s="40"/>
     </row>
     <row r="89" spans="4:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D89" s="26"/>
@@ -2027,31 +2031,31 @@
     </row>
     <row r="97" spans="4:8" ht="14" x14ac:dyDescent="0.3">
       <c r="D97" s="26"/>
-      <c r="E97" s="40" t="s">
+      <c r="E97" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="F97" s="41">
-        <v>1</v>
-      </c>
-      <c r="G97" s="41" t="s">
+      <c r="F97" s="42">
+        <v>1</v>
+      </c>
+      <c r="G97" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="H97" s="42" t="s">
+      <c r="H97" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="98" spans="4:8" ht="14" x14ac:dyDescent="0.3">
       <c r="D98" s="26"/>
-      <c r="E98" s="43" t="s">
+      <c r="E98" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="F98" s="41">
-        <v>4</v>
-      </c>
-      <c r="G98" s="41" t="s">
+      <c r="F98" s="42">
+        <v>4</v>
+      </c>
+      <c r="G98" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="H98" s="42" t="s">
+      <c r="H98" s="43" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2138,10 +2142,10 @@
       <c r="F104" s="6">
         <v>1</v>
       </c>
-      <c r="G104" s="43" t="s">
+      <c r="G104" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="H104" s="44" t="s">
+      <c r="H104" s="45" t="s">
         <v>4</v>
       </c>
     </row>
